--- a/Functional1.xlsx
+++ b/Functional1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rohini\Documents\GitHub\Rohini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D071865-3620-4322-8B9E-BDDC0CD03CF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB73DA7-C15D-45D3-8744-06BE05AA4CB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,13 +679,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J80" totalsRowShown="0">
-  <autoFilter ref="A1:J80" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J80" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -989,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2:I72"/>
     </sheetView>
   </sheetViews>
@@ -1065,7 +1059,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -1079,7 +1073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -1093,7 +1087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>25</v>
       </c>
@@ -1130,7 +1124,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -1167,7 +1161,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>17</v>
       </c>
@@ -1181,7 +1175,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>21</v>
       </c>
@@ -1195,7 +1189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>25</v>
       </c>
@@ -1232,7 +1226,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>18</v>
       </c>
@@ -1243,7 +1237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>22</v>
       </c>
@@ -1280,7 +1274,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>54</v>
       </c>
@@ -1294,7 +1288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>57</v>
       </c>
@@ -1308,7 +1302,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>60</v>
       </c>
@@ -1322,7 +1316,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>63</v>
       </c>
@@ -1336,7 +1330,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>67</v>
       </c>
@@ -1373,7 +1367,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>18</v>
       </c>
@@ -1410,7 +1404,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>54</v>
       </c>
@@ -1424,7 +1418,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>57</v>
       </c>
@@ -1438,7 +1432,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>60</v>
       </c>
@@ -1452,7 +1446,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>63</v>
       </c>
@@ -1466,7 +1460,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>67</v>
       </c>
@@ -1503,7 +1497,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>18</v>
       </c>
@@ -1514,7 +1508,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>22</v>
       </c>
@@ -1551,7 +1545,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>96</v>
       </c>
@@ -1565,7 +1559,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>99</v>
       </c>
@@ -1579,7 +1573,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>102</v>
       </c>
@@ -1593,7 +1587,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>64</v>
       </c>
@@ -1630,7 +1624,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>18</v>
       </c>
@@ -1667,7 +1661,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>96</v>
       </c>
@@ -1681,7 +1675,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>99</v>
       </c>
@@ -1695,7 +1689,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>102</v>
       </c>
@@ -1709,7 +1703,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
         <v>64</v>
       </c>
@@ -1746,7 +1740,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
         <v>18</v>
       </c>
@@ -1757,7 +1751,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
         <v>22</v>
       </c>
@@ -1794,7 +1788,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>96</v>
       </c>
@@ -1808,7 +1802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>133</v>
       </c>
@@ -1822,7 +1816,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>136</v>
       </c>
@@ -1836,7 +1830,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>63</v>
       </c>
@@ -1850,7 +1844,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>67</v>
       </c>
@@ -1887,7 +1881,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>18</v>
       </c>
@@ -1924,7 +1918,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>96</v>
       </c>
@@ -1938,7 +1932,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>133</v>
       </c>
@@ -1952,7 +1946,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>136</v>
       </c>
@@ -1966,7 +1960,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>63</v>
       </c>
@@ -1980,7 +1974,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
         <v>67</v>
       </c>
@@ -2017,7 +2011,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>18</v>
       </c>
@@ -2028,7 +2022,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>22</v>
       </c>
@@ -2065,7 +2059,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>96</v>
       </c>
@@ -2079,7 +2073,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>167</v>
       </c>
@@ -2093,7 +2087,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>170</v>
       </c>
@@ -2107,7 +2101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>63</v>
       </c>
@@ -2121,7 +2115,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
         <v>67</v>
       </c>
@@ -2158,7 +2152,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
         <v>18</v>
       </c>
@@ -2195,7 +2189,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>96</v>
       </c>
@@ -2209,7 +2203,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>167</v>
       </c>
@@ -2223,7 +2217,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>170</v>
       </c>
@@ -2237,7 +2231,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>63</v>
       </c>
@@ -2251,7 +2245,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
         <v>67</v>
       </c>
@@ -2285,7 +2279,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
         <v>18</v>
       </c>
@@ -2296,7 +2290,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
         <v>22</v>
       </c>
